--- a/03_time_report/Hours worked 15 Nov - 30 Sept 2025.xlsx
+++ b/03_time_report/Hours worked 15 Nov - 30 Sept 2025.xlsx
@@ -55,7 +55,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -78,11 +78,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -90,6 +101,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -394,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,15 +463,15 @@
         <v>15.75</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C6" si="0">(C3-B4)</f>
+        <f t="shared" ref="C4:C7" si="0">(C3-B4)</f>
         <v>102.85</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="4">
-        <f>SUM(B2:B6)</f>
-        <v>106.75</v>
+        <f>SUM(B2:B7)</f>
+        <v>110.25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -484,6 +496,18 @@
       <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>31.849999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6.2024999999999997</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>28.349999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/03_time_report/Hours worked 15 Nov - 30 Sept 2025.xlsx
+++ b/03_time_report/Hours worked 15 Nov - 30 Sept 2025.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,8 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,7 +104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -162,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,10 +194,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,7 +228,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -405,22 +403,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" customWidth="1"/>
-    <col min="7" max="7" width="21.453125" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="42" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -431,7 +429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>11.202400000000001</v>
       </c>
@@ -443,7 +441,7 @@
         <v>135.35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>12.202400000000001</v>
       </c>
@@ -455,7 +453,7 @@
         <v>118.6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1.2024999999999999</v>
       </c>
@@ -471,10 +469,10 @@
       </c>
       <c r="H4" s="4">
         <f>SUM(B2:B7)</f>
-        <v>110.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>112.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2.2025000000000001</v>
       </c>
@@ -486,7 +484,7 @@
         <v>83.35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>3.2025000000000001</v>
       </c>
@@ -498,16 +496,16 @@
         <v>31.849999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="5">
         <v>6.2024999999999997</v>
       </c>
       <c r="B7" s="5">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>28.349999999999994</v>
+        <v>25.849999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/03_time_report/Hours worked 15 Nov - 30 Sept 2025.xlsx
+++ b/03_time_report/Hours worked 15 Nov - 30 Sept 2025.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="H4" s="4">
         <f>SUM(B2:B7)</f>
-        <v>112.75</v>
+        <v>117.25</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -501,11 +501,11 @@
         <v>6.2024999999999997</v>
       </c>
       <c r="B7" s="5">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>25.849999999999994</v>
+        <v>21.349999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/03_time_report/Hours worked 15 Nov - 30 Sept 2025.xlsx
+++ b/03_time_report/Hours worked 15 Nov - 30 Sept 2025.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="H4" s="4">
         <f>SUM(B2:B7)</f>
-        <v>117.25</v>
+        <v>119.25</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -501,11 +501,11 @@
         <v>6.2024999999999997</v>
       </c>
       <c r="B7" s="5">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>21.349999999999994</v>
+        <v>19.349999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/03_time_report/Hours worked 15 Nov - 30 Sept 2025.xlsx
+++ b/03_time_report/Hours worked 15 Nov - 30 Sept 2025.xlsx
@@ -55,7 +55,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,30 +78,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -425,7 +413,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -461,15 +449,15 @@
         <v>15.75</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C7" si="0">(C3-B4)</f>
+        <f t="shared" ref="C4:C8" si="0">(C3-B4)</f>
         <v>102.85</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="4">
-        <f>SUM(B2:B7)</f>
-        <v>119.25</v>
+      <c r="H4" s="3">
+        <f>SUM(B2:B8)</f>
+        <v>120.75</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -491,21 +479,33 @@
       <c r="B6" s="1">
         <v>51.5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>31.849999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6.2024999999999997</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>12.5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>19.349999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>7.2024999999999997</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>17.849999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/03_time_report/Hours worked 15 Nov - 30 Sept 2025.xlsx
+++ b/03_time_report/Hours worked 15 Nov - 30 Sept 2025.xlsx
@@ -55,7 +55,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -78,11 +78,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -90,6 +101,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -449,15 +461,15 @@
         <v>15.75</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C8" si="0">(C3-B4)</f>
+        <f t="shared" ref="C4:C9" si="0">(C3-B4)</f>
         <v>102.85</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="3">
-        <f>SUM(B2:B8)</f>
-        <v>120.75</v>
+        <f>SUM(B2:B9)</f>
+        <v>122.75</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -506,6 +518,18 @@
       <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>17.849999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5">
+        <v>8.2025000000000006</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>15.849999999999994</v>
       </c>
     </row>
   </sheetData>
